--- a/biology/Zoologie/Anyphaena/Anyphaena.xlsx
+++ b/biology/Zoologie/Anyphaena/Anyphaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anyphaena est un genre d'araignées aranéomorphes de la famille des Anyphaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anyphaena est un genre d'araignées aranéomorphes de la famille des Anyphaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Europe et en Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Europe et en Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 03/04/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 03/04/2024) :
 Anyphaena accentuata (Walckenaer, 1802)
 Anyphaena adnani Rivera-Quiroz &amp; Álvarez-Padilla, 2023
 Anyphaena alachua Platnick, 1974
@@ -655,7 +671,7 @@
 Anyphaena yoshitakei Baba &amp; Tanikawa, 2017
 Anyphaena zorynae Durán-Barrón, Pérez &amp; Brescovit, 2016
 Anyphaena zuyelenae Durán-Barrón, Pérez &amp; Brescovit, 2016
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Anyphaena fuscata C. L. Koch &amp; Berendt, 1854</t>
         </is>
       </c>
@@ -684,7 +700,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Sundevall en 1833.
 </t>
@@ -715,7 +733,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sundevall, 1833 : « Svenska spindlarnes beskrifning. » Fortsättning och slut. Bihang till Kongliga Svenska Vetenskaps-Akademiens Handlingar, vol. 1832, p. 172-272 (texte intégral).</t>
         </is>
